--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_3752.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_3752.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3752</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>George Henry Dockrell</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Orthodox</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3108</t>
+          <t>3108</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -544,7 +609,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>01/07/2010</t>
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3136</t>
+          <t>3136</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -592,7 +656,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>03/07/2010</t>
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3138</t>
+          <t>3138</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -640,7 +703,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>05/07/2010</t>
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3143</t>
+          <t>3143</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -688,7 +750,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>07/07/2010</t>
@@ -696,7 +757,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3145</t>
+          <t>3145</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3151</t>
+          <t>3151</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -788,7 +849,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>10/07/2010</t>
@@ -796,7 +856,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3154</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -836,7 +896,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>15/07/2010</t>
@@ -844,7 +903,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3157</t>
+          <t>3157</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -896,7 +955,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3158</t>
+          <t>3158</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -936,7 +995,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>16/08/2010</t>
@@ -944,7 +1002,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3165</t>
+          <t>3165</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -984,7 +1042,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>18/08/2010</t>
@@ -992,7 +1049,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3167</t>
+          <t>3167</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1044,7 +1101,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3172</t>
+          <t>3172</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1084,7 +1141,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>07/09/2010</t>
@@ -1092,7 +1148,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3173</t>
+          <t>3173</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1144,7 +1200,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3179</t>
+          <t>3179</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1196,7 +1252,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3180</t>
+          <t>3180</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1248,7 +1304,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3181</t>
+          <t>3181</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1300,7 +1356,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3243</t>
+          <t>3243</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1340,7 +1396,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>02/03/2011</t>
@@ -1348,7 +1403,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3249</t>
+          <t>3249</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1400,7 +1455,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3256</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1452,7 +1507,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3261</t>
+          <t>3261</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1504,7 +1559,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3268</t>
+          <t>3268</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1544,7 +1599,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>18/03/2011</t>
@@ -1552,7 +1606,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3271</t>
+          <t>3271</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1592,7 +1646,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>12/07/2011</t>
@@ -1600,7 +1653,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3307</t>
+          <t>3307</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1652,7 +1705,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3321</t>
+          <t>3321</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1692,7 +1745,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>19/09/2011</t>
@@ -1700,7 +1752,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3332</t>
+          <t>3332</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1752,7 +1804,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3333</t>
+          <t>3333</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1804,7 +1856,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3378</t>
+          <t>3378</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1856,7 +1908,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3381</t>
+          <t>3381</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1896,7 +1948,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>23/06/2012</t>
@@ -1904,7 +1955,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3416</t>
+          <t>3416</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1956,7 +2007,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3421</t>
+          <t>3421</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1996,7 +2047,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>23/05/2013</t>
@@ -2004,7 +2054,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3499</t>
+          <t>3499</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2056,7 +2106,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3500</t>
+          <t>3500</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2108,7 +2158,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3526</t>
+          <t>3526</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2148,7 +2198,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>09/07/2013</t>
@@ -2156,7 +2205,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3528</t>
+          <t>3528</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2196,7 +2245,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>03/09/2013</t>
@@ -2204,7 +2252,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3551</t>
+          <t>3551</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2256,7 +2304,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3554</t>
+          <t>3554</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2296,7 +2344,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>08/09/2013</t>
@@ -2304,7 +2351,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3556</t>
+          <t>3556</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2356,7 +2403,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3617</t>
+          <t>3617</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2408,7 +2455,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3635</t>
+          <t>3635</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2448,7 +2495,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>10/01/2015</t>
@@ -2456,7 +2502,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3722</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2496,7 +2542,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>12/01/2015</t>
@@ -2504,7 +2549,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3724</t>
+          <t>3724</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2556,7 +2601,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3730</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2596,7 +2641,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>16/02/2015</t>
@@ -2604,7 +2648,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3752</t>
+          <t>3752</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2656,7 +2700,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3763</t>
+          <t>3763</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2708,7 +2752,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3771</t>
+          <t>3771</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2760,7 +2804,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3777</t>
+          <t>3777</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2812,7 +2856,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3781</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2864,7 +2908,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3789</t>
+          <t>3789</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2904,7 +2948,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>08/05/2015</t>
@@ -2912,7 +2955,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3800</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2964,7 +3007,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3839</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3016,7 +3059,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3840</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3068,7 +3111,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3842</t>
+          <t>3842</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3120,7 +3163,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3915</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3172,7 +3215,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3935</t>
+          <t>3935</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3224,7 +3267,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3937</t>
+          <t>3937</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3276,7 +3319,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4000</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3316,7 +3359,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>04/03/2017</t>
@@ -3324,7 +3366,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4003</t>
+          <t>4003</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3376,7 +3418,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4006</t>
+          <t>4006</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3428,7 +3470,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4007</t>
+          <t>4007</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3468,7 +3510,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>19/03/2017</t>
@@ -3476,7 +3517,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4008</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3528,7 +3569,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4009</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3580,7 +3621,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4010</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3632,7 +3673,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4020</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3684,7 +3725,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4021</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3724,7 +3765,6 @@
           <t>65</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>12/05/2017</t>
@@ -3732,7 +3772,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4022</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3784,7 +3824,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4023</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3836,7 +3876,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3888,7 +3928,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4026</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3940,7 +3980,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4092</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3992,7 +4032,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4093</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4032,7 +4072,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>10/12/2017</t>
@@ -4040,7 +4079,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4097</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4092,7 +4131,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4106</t>
+          <t>4106</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4132,7 +4171,6 @@
           <t>73</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>13/01/2018</t>
@@ -4140,7 +4178,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4107</t>
+          <t>4107</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4180,7 +4218,6 @@
           <t>74</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>16/01/2018</t>
@@ -4188,7 +4225,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4111</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4240,7 +4277,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4113</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4292,7 +4329,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4143</t>
+          <t>4143</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4344,7 +4381,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4150</t>
+          <t>4150</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4396,7 +4433,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4257</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4436,7 +4473,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -4444,7 +4480,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4259</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4496,7 +4532,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4262</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4548,7 +4584,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4265</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4600,7 +4636,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4267</t>
+          <t>4267</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4652,7 +4688,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4704,7 +4740,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4744,7 +4780,6 @@
           <t>85</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -4752,7 +4787,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4804,7 +4839,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4856,7 +4891,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4299</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4908,7 +4943,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4466</t>
+          <t>4466</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4948,7 +4983,6 @@
           <t>89</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>04/06/2021</t>
@@ -4956,7 +4990,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4467</t>
+          <t>4467</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5008,7 +5042,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4468</t>
+          <t>4468</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5060,7 +5094,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4474</t>
+          <t>4474</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5112,7 +5146,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4475</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5164,7 +5198,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4478</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5216,7 +5250,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4492</t>
+          <t>4492</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5268,7 +5302,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4494</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5320,7 +5354,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4496</t>
+          <t>4496</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5372,7 +5406,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5424,7 +5458,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5476,7 +5510,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5528,7 +5562,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4605</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5580,7 +5614,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4608</t>
+          <t>4608</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5632,7 +5666,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4614</t>
+          <t>4614</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5684,7 +5718,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4693</t>
+          <t>4693</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5736,7 +5770,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4694</t>
+          <t>4694</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5776,7 +5810,6 @@
           <t>105</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
           <t>23/01/2023</t>
@@ -5784,7 +5817,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4696</t>
+          <t>4696</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5836,7 +5869,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4726</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5876,7 +5909,6 @@
           <t>107</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
           <t>20/03/2023</t>
@@ -5884,7 +5916,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4729</t>
+          <t>4729</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5936,7 +5968,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4734</t>
+          <t>4734</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5975,7 +6007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5997,7 +6029,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -6034,7 +6066,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3108</t>
+          <t>3108</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6071,7 +6103,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3136</t>
+          <t>3136</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -6108,7 +6140,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3138</t>
+          <t>3138</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -6145,7 +6177,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3143</t>
+          <t>3143</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -6182,7 +6214,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3145</t>
+          <t>3145</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -6219,7 +6251,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3151</t>
+          <t>3151</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -6256,7 +6288,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3154</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -6293,7 +6325,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3157</t>
+          <t>3157</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -6330,7 +6362,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3158</t>
+          <t>3158</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -6367,7 +6399,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3165</t>
+          <t>3165</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -6404,7 +6436,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3167</t>
+          <t>3167</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -6441,7 +6473,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3172</t>
+          <t>3172</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -6478,7 +6510,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3173</t>
+          <t>3173</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -6515,7 +6547,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3179</t>
+          <t>3179</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -6552,7 +6584,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3180</t>
+          <t>3180</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -6589,7 +6621,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3181</t>
+          <t>3181</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -6626,7 +6658,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3243</t>
+          <t>3243</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -6663,7 +6695,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3249</t>
+          <t>3249</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -6700,7 +6732,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3256</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6737,7 +6769,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3261</t>
+          <t>3261</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -6774,7 +6806,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3268</t>
+          <t>3268</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -6811,7 +6843,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3271</t>
+          <t>3271</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -6848,7 +6880,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3307</t>
+          <t>3307</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -6885,7 +6917,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3321</t>
+          <t>3321</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -6922,7 +6954,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3332</t>
+          <t>3332</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -6959,7 +6991,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3333</t>
+          <t>3333</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6996,7 +7028,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3378</t>
+          <t>3378</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -7033,7 +7065,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3381</t>
+          <t>3381</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -7070,7 +7102,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3421</t>
+          <t>3421</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -7107,7 +7139,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3499</t>
+          <t>3499</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -7144,7 +7176,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3500</t>
+          <t>3500</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -7181,7 +7213,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3526</t>
+          <t>3526</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -7218,7 +7250,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3528</t>
+          <t>3528</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7255,7 +7287,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3551</t>
+          <t>3551</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7292,7 +7324,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3554</t>
+          <t>3554</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7329,7 +7361,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3556</t>
+          <t>3556</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7366,7 +7398,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3617</t>
+          <t>3617</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7403,7 +7435,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3635</t>
+          <t>3635</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -7440,7 +7472,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3722</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -7477,7 +7509,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3724</t>
+          <t>3724</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -7514,7 +7546,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3730</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -7551,7 +7583,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3752</t>
+          <t>3752</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -7588,7 +7620,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3763</t>
+          <t>3763</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -7625,7 +7657,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3771</t>
+          <t>3771</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -7662,7 +7694,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3777</t>
+          <t>3777</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -7699,7 +7731,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3781</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -7736,7 +7768,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3789</t>
+          <t>3789</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -7773,7 +7805,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3839</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -7810,7 +7842,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3840</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -7847,7 +7879,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3842</t>
+          <t>3842</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -7884,7 +7916,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3915</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -7921,7 +7953,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3935</t>
+          <t>3935</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -7958,7 +7990,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3937</t>
+          <t>3937</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -7995,7 +8027,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4000</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -8032,7 +8064,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4003</t>
+          <t>4003</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -8069,7 +8101,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4006</t>
+          <t>4006</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -8106,7 +8138,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4007</t>
+          <t>4007</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -8143,7 +8175,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4008</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -8180,7 +8212,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4009</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -8217,7 +8249,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4010</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -8254,7 +8286,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4020</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -8291,7 +8323,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4021</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -8328,7 +8360,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4022</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -8365,7 +8397,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4023</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -8402,7 +8434,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -8439,7 +8471,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4026</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -8476,7 +8508,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4092</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -8513,7 +8545,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4093</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -8550,7 +8582,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4097</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -8587,7 +8619,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4106</t>
+          <t>4106</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -8624,7 +8656,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4107</t>
+          <t>4107</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -8661,7 +8693,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4111</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -8698,7 +8730,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4113</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -8735,7 +8767,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4143</t>
+          <t>4143</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -8772,7 +8804,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4150</t>
+          <t>4150</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -8809,7 +8841,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4257</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -8846,7 +8878,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4259</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -8883,7 +8915,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4262</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -8920,7 +8952,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4265</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -8957,7 +8989,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4267</t>
+          <t>4267</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -8994,7 +9026,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -9031,7 +9063,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -9068,7 +9100,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -9105,7 +9137,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -9142,7 +9174,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4299</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -9179,7 +9211,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4466</t>
+          <t>4466</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -9216,7 +9248,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4475</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -9253,7 +9285,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4478</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -9290,7 +9322,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4492</t>
+          <t>4492</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -9327,7 +9359,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -9364,7 +9396,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -9401,7 +9433,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -9438,7 +9470,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4693</t>
+          <t>4693</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -9475,7 +9507,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4694</t>
+          <t>4694</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -9501,6 +9533,511 @@
       <c r="G95" t="inlineStr">
         <is>
           <t>0/5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4467</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.54%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4474</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15.52%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4.82%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4494</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4496</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2.98%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6.00%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>34.26%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6.13%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4693</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4694</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>10.20%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4696</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4726</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4729</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4734</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_3752.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_3752.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9596,9 +9597,6 @@
       <c r="B2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9641,405 +9639,655 @@
           <t>4474</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15.52%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4.82%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4494</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4496</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2.98%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6.00%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>34.26%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6.13%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4693</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4694</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>10.20%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4696</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4726</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4729</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4734</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4150</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4257</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4259</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>15.52%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4265</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4492</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
+          <t>4267</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.82%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4494</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>4284</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4496</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="inlineStr">
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4519</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>4291</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.98%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4295</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>4299</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6.00%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4466</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>34.26%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4614</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>6.13%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4693</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4694</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>10.20%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4696</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4726</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4729</t>
+          <t>4693</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4734</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="inlineStr">
+          <t>4694</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_3752.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_3752.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -610,6 +608,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>01/07/2010</t>
@@ -657,6 +656,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>03/07/2010</t>
@@ -704,6 +704,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>05/07/2010</t>
@@ -751,6 +752,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>07/07/2010</t>
@@ -850,6 +852,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>10/07/2010</t>
@@ -897,6 +900,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>15/07/2010</t>
@@ -996,6 +1000,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>16/08/2010</t>
@@ -1043,6 +1048,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>18/08/2010</t>
@@ -1142,6 +1148,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>07/09/2010</t>
@@ -1397,6 +1404,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>02/03/2011</t>
@@ -1600,6 +1608,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>18/03/2011</t>
@@ -1647,6 +1656,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>12/07/2011</t>
@@ -1746,6 +1756,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>19/09/2011</t>
@@ -1949,6 +1960,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>23/06/2012</t>
@@ -2048,6 +2060,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>23/05/2013</t>
@@ -2199,6 +2212,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>09/07/2013</t>
@@ -2246,6 +2260,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>03/09/2013</t>
@@ -2345,6 +2360,7 @@
           <t>37</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>08/09/2013</t>
@@ -2496,6 +2512,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>10/01/2015</t>
@@ -2543,6 +2560,7 @@
           <t>41</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>12/01/2015</t>
@@ -2642,6 +2660,7 @@
           <t>43</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>16/02/2015</t>
@@ -2949,6 +2968,7 @@
           <t>49</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>08/05/2015</t>
@@ -3360,6 +3380,7 @@
           <t>57</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>04/03/2017</t>
@@ -3511,6 +3532,7 @@
           <t>60</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>19/03/2017</t>
@@ -3766,6 +3788,7 @@
           <t>65</t>
         </is>
       </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>12/05/2017</t>
@@ -3778,7 +3801,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4073,6 +4096,7 @@
           <t>71</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>10/12/2017</t>
@@ -4172,6 +4196,7 @@
           <t>73</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>13/01/2018</t>
@@ -4219,6 +4244,7 @@
           <t>74</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>16/01/2018</t>
@@ -4474,6 +4500,7 @@
           <t>79</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -4486,7 +4513,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4781,6 +4808,7 @@
           <t>85</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -4984,6 +5012,7 @@
           <t>89</t>
         </is>
       </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>04/06/2021</t>
@@ -5811,6 +5840,7 @@
           <t>105</t>
         </is>
       </c>
+      <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
           <t>23/01/2023</t>
@@ -5823,7 +5853,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5910,6 +5940,7 @@
           <t>107</t>
         </is>
       </c>
+      <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
           <t>20/03/2023</t>
@@ -5922,7 +5953,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -9540,756 +9571,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4467</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4468</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>24.54%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4474</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>15.52%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4492</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.82%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4494</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4496</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4519</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.98%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6.00%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>34.26%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4614</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>6.13%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4693</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4694</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>10.20%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4696</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4726</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4729</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4734</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4150</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4257</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4259</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4262</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4265</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4267</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4284</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4285</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4291</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4295</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4299</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4466</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4492</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4519</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4693</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4694</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>